--- a/Code/Results/Cases/Case_4_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_102/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.479195595427143</v>
+        <v>0.8204252994459011</v>
       </c>
       <c r="C2">
-        <v>0.7357475991456397</v>
+        <v>0.227809183241817</v>
       </c>
       <c r="D2">
-        <v>0.2042935840584192</v>
+        <v>0.07914228364920461</v>
       </c>
       <c r="E2">
-        <v>0.1882001002402234</v>
+        <v>0.1058171064006501</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007787660204261968</v>
+        <v>0.002403682274624849</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2184170873816917</v>
+        <v>0.4260496289937556</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9978926033993289</v>
+        <v>0.3569098304336933</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.789056207551965</v>
+        <v>2.163602134772987</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.157443608859921</v>
+        <v>0.7209362687368639</v>
       </c>
       <c r="C3">
-        <v>0.6426485049992721</v>
+        <v>0.1988024612056734</v>
       </c>
       <c r="D3">
-        <v>0.1768299091005332</v>
+        <v>0.07169747977485486</v>
       </c>
       <c r="E3">
-        <v>0.1642792991091042</v>
+        <v>0.1008576460051742</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007840201701819081</v>
+        <v>0.002407052235307351</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2177256034939958</v>
+        <v>0.4319414183826495</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8633435883359297</v>
+        <v>0.3186550151146577</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.649222330287529</v>
+        <v>2.155727056313566</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.96038571832554</v>
+        <v>0.659743177468215</v>
       </c>
       <c r="C4">
-        <v>0.5856477077126954</v>
+        <v>0.180927734413217</v>
       </c>
       <c r="D4">
-        <v>0.1601707465452336</v>
+        <v>0.06716268582437124</v>
       </c>
       <c r="E4">
-        <v>0.1501048516960353</v>
+        <v>0.09792283209908703</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007873419477459378</v>
+        <v>0.002409230710843558</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2183757622754392</v>
+        <v>0.4359679241284624</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7814479854155394</v>
+        <v>0.295237403581865</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.569258502052747</v>
+        <v>2.152940309686073</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.880168299728126</v>
+        <v>0.6347808497642973</v>
       </c>
       <c r="C5">
-        <v>0.5624468989068703</v>
+        <v>0.1736276390377895</v>
       </c>
       <c r="D5">
-        <v>0.1534266581931121</v>
+        <v>0.06532380698453721</v>
       </c>
       <c r="E5">
-        <v>0.1444439720855435</v>
+        <v>0.09675429353514886</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000788720369048102</v>
+        <v>0.002410146030363588</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2188940325460216</v>
+        <v>0.4377112078998096</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7482260783812862</v>
+        <v>0.2857123006725928</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.538041869125635</v>
+        <v>2.152317686022855</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.866852288568651</v>
+        <v>0.6306343585291643</v>
       </c>
       <c r="C6">
-        <v>0.5585957100754229</v>
+        <v>0.172414503921118</v>
       </c>
       <c r="D6">
-        <v>0.152309320738965</v>
+        <v>0.06501900982534892</v>
       </c>
       <c r="E6">
-        <v>0.1435105709933033</v>
+        <v>0.09656190554123256</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007889507706582855</v>
+        <v>0.002410299686342405</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2189949160586906</v>
+        <v>0.438006855519717</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7427179205046883</v>
+        <v>0.2841317350424077</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.532937903254322</v>
+        <v>2.152245221183279</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.959303583951538</v>
+        <v>0.6594066291340823</v>
       </c>
       <c r="C7">
-        <v>0.5853347191773821</v>
+        <v>0.1808293472631419</v>
       </c>
       <c r="D7">
-        <v>0.160079620966016</v>
+        <v>0.06713784933897671</v>
       </c>
       <c r="E7">
-        <v>0.1500280575300934</v>
+        <v>0.09790696216793293</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007873604364076111</v>
+        <v>0.002409242943503598</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.218381747750982</v>
+        <v>0.4359910203498849</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7809993681728145</v>
+        <v>0.2951088728990285</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.568832103621673</v>
+        <v>2.152929838497244</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.3681266729821</v>
+        <v>0.7861442032865966</v>
       </c>
       <c r="C8">
-        <v>0.703604937433397</v>
+        <v>0.2178211679961635</v>
       </c>
       <c r="D8">
-        <v>0.1947777614297053</v>
+        <v>0.07656773746202816</v>
       </c>
       <c r="E8">
-        <v>0.1798371785960171</v>
+        <v>0.1040839955724238</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007805582241500016</v>
+        <v>0.002404821603029295</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2179450824930136</v>
+        <v>0.4279960193651249</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9513327214354845</v>
+        <v>0.3437047666807445</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.739547702253816</v>
+        <v>2.160460330315573</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.175798409185063</v>
+        <v>1.03379563686542</v>
       </c>
       <c r="C9">
-        <v>0.9374882153750264</v>
+        <v>0.2898445855980469</v>
       </c>
       <c r="D9">
-        <v>0.2647570746084256</v>
+        <v>0.09535148505619873</v>
       </c>
       <c r="E9">
-        <v>0.2430369518605886</v>
+        <v>0.1170874768383143</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007679442868716051</v>
+        <v>0.002397014684295657</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.226436769213489</v>
+        <v>0.4155794524748444</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.292504270751181</v>
+        <v>0.4395737624336249</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.126594612509024</v>
+        <v>2.19158285586596</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.775944179007581</v>
+        <v>1.215178727098646</v>
       </c>
       <c r="C10">
-        <v>1.111546442490862</v>
+        <v>0.3424423937881897</v>
       </c>
       <c r="D10">
-        <v>0.31783793536529</v>
+        <v>0.1093358786027494</v>
       </c>
       <c r="E10">
-        <v>0.2933950943836265</v>
+        <v>0.1272057529775381</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007590672190065361</v>
+        <v>0.002391799659909136</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2396116856364685</v>
+        <v>0.4084688361303392</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.549750027869834</v>
+        <v>0.5103780871567807</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.451157309177432</v>
+        <v>2.224564832008838</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.051204504066561</v>
+        <v>1.297566782645333</v>
       </c>
       <c r="C11">
-        <v>1.191470641635362</v>
+        <v>0.3663014075121964</v>
       </c>
       <c r="D11">
-        <v>0.3424672911370266</v>
+        <v>0.1157390900858104</v>
       </c>
       <c r="E11">
-        <v>0.3174160039845972</v>
+        <v>0.1319362027396167</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007551009530608778</v>
+        <v>0.002389539089396481</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2474162172633712</v>
+        <v>0.4056759397182859</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.668763811067294</v>
+        <v>0.542673921599885</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.609595561695357</v>
+        <v>2.241797582237496</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.155832721906961</v>
+        <v>1.32874637193521</v>
       </c>
       <c r="C12">
-        <v>1.221866591710466</v>
+        <v>0.3753262981038574</v>
       </c>
       <c r="D12">
-        <v>0.3518741227807709</v>
+        <v>0.1181698889502769</v>
       </c>
       <c r="E12">
-        <v>0.3266964876329155</v>
+        <v>0.1337462170739911</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007536082285576895</v>
+        <v>0.002388699052317359</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2506603485697951</v>
+        <v>0.4046822819518141</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.714169065126143</v>
+        <v>0.5549162098779021</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.671334869964738</v>
+        <v>2.248646164732435</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.133280499122748</v>
+        <v>1.322032151640656</v>
       </c>
       <c r="C13">
-        <v>1.215314082384168</v>
+        <v>0.3733830746868989</v>
       </c>
       <c r="D13">
-        <v>0.3498444414923654</v>
+        <v>0.1176461033605847</v>
       </c>
       <c r="E13">
-        <v>0.3246891574916262</v>
+        <v>0.1333555610510047</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007539293228724317</v>
+        <v>0.002388879259232144</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2499483454873968</v>
+        <v>0.4048934328649594</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.704374359760649</v>
+        <v>0.552279053856779</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.657957488703914</v>
+        <v>2.247156800430787</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.059804029510076</v>
+        <v>1.30013233308415</v>
       </c>
       <c r="C14">
-        <v>1.193968578918373</v>
+        <v>0.3670440923673368</v>
       </c>
       <c r="D14">
-        <v>0.3432395232010919</v>
+        <v>0.1159389519786487</v>
       </c>
       <c r="E14">
-        <v>0.3181756728500318</v>
+        <v>0.1320847370209464</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007549779678832226</v>
+        <v>0.002389469658962862</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2476771555054995</v>
+        <v>0.4055929067650226</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.672492257243192</v>
+        <v>0.5436808497466501</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.614638818723051</v>
+        <v>2.242354533955563</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.014850943534441</v>
+        <v>1.286715556559386</v>
       </c>
       <c r="C15">
-        <v>1.180911557649438</v>
+        <v>0.3631599738315572</v>
       </c>
       <c r="D15">
-        <v>0.339204607255823</v>
+        <v>0.1148940608650122</v>
       </c>
       <c r="E15">
-        <v>0.3142107415809363</v>
+        <v>0.1313087656870238</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007556214578125639</v>
+        <v>0.002389833376094343</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2463244732117076</v>
+        <v>0.4060296957799565</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.653009081285674</v>
+        <v>0.5384158399314742</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.5883377333179</v>
+        <v>2.239455130517797</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.758006342911415</v>
+        <v>1.209791879939587</v>
       </c>
       <c r="C16">
-        <v>1.106340127146666</v>
+        <v>0.3408817637737229</v>
       </c>
       <c r="D16">
-        <v>0.3162389631245475</v>
+        <v>0.1089182561827471</v>
       </c>
       <c r="E16">
-        <v>0.2918496774334471</v>
+        <v>0.1268992041766595</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007593277772764537</v>
+        <v>0.002391949635708685</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2391404420607621</v>
+        <v>0.408660284297607</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.542016505391445</v>
+        <v>0.508269229697774</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.441036011189425</v>
+        <v>2.223483689042098</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.601064288684483</v>
+        <v>1.162569109938147</v>
       </c>
       <c r="C17">
-        <v>1.060799468188748</v>
+        <v>0.3271972286641471</v>
       </c>
       <c r="D17">
-        <v>0.3022812827157679</v>
+        <v>0.1052629969336323</v>
       </c>
       <c r="E17">
-        <v>0.2784333376043406</v>
+        <v>0.1242270079671073</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007616191405846226</v>
+        <v>0.002393276462245508</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2352164331493292</v>
+        <v>0.4103875139541167</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.474470820667037</v>
+        <v>0.4897975116971622</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.353565040659959</v>
+        <v>2.214258337662159</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.511002697816195</v>
+        <v>1.135396215309584</v>
       </c>
       <c r="C18">
-        <v>1.034674201344558</v>
+        <v>0.3193198591796431</v>
       </c>
       <c r="D18">
-        <v>0.2942979133790971</v>
+        <v>0.1031645046907244</v>
       </c>
       <c r="E18">
-        <v>0.2708197475426957</v>
+        <v>0.1227020203565417</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007629439187686009</v>
+        <v>0.002394050142838516</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2331280782883205</v>
+        <v>0.4114225256193258</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.435804420781437</v>
+        <v>0.4791812118659351</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.304257508659333</v>
+        <v>2.209161829365172</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.480542995181111</v>
+        <v>1.126193981896336</v>
       </c>
       <c r="C19">
-        <v>1.025839729216358</v>
+        <v>0.3166516271508613</v>
       </c>
       <c r="D19">
-        <v>0.2916022486000855</v>
+        <v>0.1024546622489737</v>
       </c>
       <c r="E19">
-        <v>0.2682589331384762</v>
+        <v>0.1221877343088522</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007633936746499415</v>
+        <v>0.002394313907917706</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2324491422688517</v>
+        <v>0.4117800868652282</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.422742792316001</v>
+        <v>0.4755881107647753</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.287729676970713</v>
+        <v>2.207472177922398</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.617749099664991</v>
+        <v>1.167597263990501</v>
       </c>
       <c r="C20">
-        <v>1.065640096326149</v>
+        <v>0.3286546334348088</v>
       </c>
       <c r="D20">
-        <v>0.3037623981155519</v>
+        <v>0.1056516998212231</v>
       </c>
       <c r="E20">
-        <v>0.2798506885240784</v>
+        <v>0.1245102244909901</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007613745203007715</v>
+        <v>0.002393134130543738</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2356165017681171</v>
+        <v>0.410199343541283</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.481641768989917</v>
+        <v>0.4917630140234621</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.362771302777816</v>
+        <v>2.215218674821614</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.081374592911232</v>
+        <v>1.306565364775111</v>
       </c>
       <c r="C21">
-        <v>1.200234533507739</v>
+        <v>0.3689062782827932</v>
       </c>
       <c r="D21">
-        <v>0.3451772789542531</v>
+        <v>0.1164402193235929</v>
       </c>
       <c r="E21">
-        <v>0.3200836327242413</v>
+        <v>0.1324574986686855</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007546697148966177</v>
+        <v>0.002389295811038158</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2483361839199176</v>
+        <v>0.4053857152939599</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.681847216034527</v>
+        <v>0.5462060090659833</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.627313669690551</v>
+        <v>2.243756293299498</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.386709377799548</v>
+        <v>1.397277908690342</v>
       </c>
       <c r="C22">
-        <v>1.288972459434717</v>
+        <v>0.3951546671715391</v>
       </c>
       <c r="D22">
-        <v>0.372717727871887</v>
+        <v>0.1235263809191451</v>
       </c>
       <c r="E22">
-        <v>0.3474656420700839</v>
+        <v>0.1377606371543791</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007503408399426594</v>
+        <v>0.00238688042318417</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2583473381926709</v>
+        <v>0.4026126876815894</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.814686841760874</v>
+        <v>0.5818608966495162</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.810464579390867</v>
+        <v>2.264290570200387</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.223508577196014</v>
+        <v>1.348873459713275</v>
       </c>
       <c r="C23">
-        <v>1.241532281833713</v>
+        <v>0.3811508227670402</v>
       </c>
       <c r="D23">
-        <v>0.3579716985555166</v>
+        <v>0.1197411207872392</v>
       </c>
       <c r="E23">
-        <v>0.3327430979546051</v>
+        <v>0.134920151079271</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007526467860256041</v>
+        <v>0.002388161062054737</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.252838730761809</v>
+        <v>0.4040584379239576</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.743587126717927</v>
+        <v>0.5628244740981359</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.711707037883201</v>
+        <v>2.253157933521379</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.610205383212246</v>
+        <v>1.165324109893731</v>
       </c>
       <c r="C24">
-        <v>1.063451473583541</v>
+        <v>0.3279957717134891</v>
       </c>
       <c r="D24">
-        <v>0.3030926586723126</v>
+        <v>0.1054759580170952</v>
       </c>
       <c r="E24">
-        <v>0.2792095956102969</v>
+        <v>0.1243821471510813</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007614850898671664</v>
+        <v>0.002393198444703954</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2354351107808696</v>
+        <v>0.4102842845713788</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.478399268383711</v>
+        <v>0.4908744000441487</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.358606111171127</v>
+        <v>2.214783860923063</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.956358537036124</v>
+        <v>0.9668967683517735</v>
       </c>
       <c r="C25">
-        <v>0.8739064917391772</v>
+        <v>0.2704160010221131</v>
       </c>
       <c r="D25">
-        <v>0.2455707161427227</v>
+        <v>0.09023811779591995</v>
       </c>
       <c r="E25">
-        <v>0.2253312590987804</v>
+        <v>0.1134721220575869</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007712841455708549</v>
+        <v>0.00239903481776811</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2230174499809223</v>
+        <v>0.418586860113848</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.199225349254718</v>
+        <v>0.4135752828674555</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.015475470030196</v>
+        <v>2.181397396028132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_102/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8204252994459011</v>
+        <v>2.4791955954272</v>
       </c>
       <c r="C2">
-        <v>0.227809183241817</v>
+        <v>0.7357475991458386</v>
       </c>
       <c r="D2">
-        <v>0.07914228364920461</v>
+        <v>0.2042935840585898</v>
       </c>
       <c r="E2">
-        <v>0.1058171064006501</v>
+        <v>0.1882001002402021</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002403682274624849</v>
+        <v>0.0007787660204252531</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4260496289937556</v>
+        <v>0.218417087381706</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3569098304336933</v>
+        <v>0.9978926033993432</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.163602134772987</v>
+        <v>1.789056207551965</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7209362687368639</v>
+        <v>2.157443608859808</v>
       </c>
       <c r="C3">
-        <v>0.1988024612056734</v>
+        <v>0.6426485049987321</v>
       </c>
       <c r="D3">
-        <v>0.07169747977485486</v>
+        <v>0.1768299091006043</v>
       </c>
       <c r="E3">
-        <v>0.1008576460051742</v>
+        <v>0.16427929910909</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002407052235307351</v>
+        <v>0.000784020170177091</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4319414183826495</v>
+        <v>0.2177256034939958</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3186550151146577</v>
+        <v>0.8633435883359226</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.155727056313566</v>
+        <v>1.649222330287529</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.659743177468215</v>
+        <v>1.960385718325568</v>
       </c>
       <c r="C4">
-        <v>0.180927734413217</v>
+        <v>0.5856477077128943</v>
       </c>
       <c r="D4">
-        <v>0.06716268582437124</v>
+        <v>0.1601707465452336</v>
       </c>
       <c r="E4">
-        <v>0.09792283209908703</v>
+        <v>0.1501048516960495</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002409230710843558</v>
+        <v>0.0007873419477399677</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4359679241284624</v>
+        <v>0.218375762275457</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.295237403581865</v>
+        <v>0.7814479854155252</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.152940309686073</v>
+        <v>1.569258502052747</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6347808497642973</v>
+        <v>1.880168299728041</v>
       </c>
       <c r="C5">
-        <v>0.1736276390377895</v>
+        <v>0.5624468989070124</v>
       </c>
       <c r="D5">
-        <v>0.06532380698453721</v>
+        <v>0.1534266581933394</v>
       </c>
       <c r="E5">
-        <v>0.09675429353514886</v>
+        <v>0.1444439720855186</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002410146030363588</v>
+        <v>0.0007887203690193356</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4377112078998096</v>
+        <v>0.2188940325460216</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2857123006725928</v>
+        <v>0.7482260783812862</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.152317686022855</v>
+        <v>1.538041869125664</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6306343585291643</v>
+        <v>1.866852288568708</v>
       </c>
       <c r="C6">
-        <v>0.172414503921118</v>
+        <v>0.5585957100755365</v>
       </c>
       <c r="D6">
-        <v>0.06501900982534892</v>
+        <v>0.1523093207388229</v>
       </c>
       <c r="E6">
-        <v>0.09656190554123256</v>
+        <v>0.143510570993282</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002410299686342405</v>
+        <v>0.0007889507706561043</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.438006855519717</v>
+        <v>0.2189949160586835</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2841317350424077</v>
+        <v>0.7427179205046741</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.152245221183279</v>
+        <v>1.532937903254378</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6594066291340823</v>
+        <v>1.959303583951652</v>
       </c>
       <c r="C7">
-        <v>0.1808293472631419</v>
+        <v>0.5853347191778369</v>
       </c>
       <c r="D7">
-        <v>0.06713784933897671</v>
+        <v>0.1600796209659165</v>
       </c>
       <c r="E7">
-        <v>0.09790696216793293</v>
+        <v>0.1500280575301147</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002409242943503598</v>
+        <v>0.0007873604364078233</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4359910203498849</v>
+        <v>0.218381747750982</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2951088728990285</v>
+        <v>0.7809993681728074</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.152929838497244</v>
+        <v>1.568832103621617</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7861442032865966</v>
+        <v>2.3681266729821</v>
       </c>
       <c r="C8">
-        <v>0.2178211679961635</v>
+        <v>0.7036049374333686</v>
       </c>
       <c r="D8">
-        <v>0.07656773746202816</v>
+        <v>0.1947777614296342</v>
       </c>
       <c r="E8">
-        <v>0.1040839955724238</v>
+        <v>0.1798371785960455</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002404821603029295</v>
+        <v>0.0007805582241236507</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4279960193651249</v>
+        <v>0.2179450824930242</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3437047666807445</v>
+        <v>0.9513327214354987</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.160460330315573</v>
+        <v>1.739547702253702</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.03379563686542</v>
+        <v>3.175798409185234</v>
       </c>
       <c r="C9">
-        <v>0.2898445855980469</v>
+        <v>0.9374882153750548</v>
       </c>
       <c r="D9">
-        <v>0.09535148505619873</v>
+        <v>0.2647570746084114</v>
       </c>
       <c r="E9">
-        <v>0.1170874768383143</v>
+        <v>0.2430369518605815</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002397014684295657</v>
+        <v>0.0007679442868703643</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4155794524748444</v>
+        <v>0.2264367692135032</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4395737624336249</v>
+        <v>1.292504270751209</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.19158285586596</v>
+        <v>2.126594612508967</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.215178727098646</v>
+        <v>3.775944179007524</v>
       </c>
       <c r="C10">
-        <v>0.3424423937881897</v>
+        <v>1.111546442490578</v>
       </c>
       <c r="D10">
-        <v>0.1093358786027494</v>
+        <v>0.3178379353651053</v>
       </c>
       <c r="E10">
-        <v>0.1272057529775381</v>
+        <v>0.2933950943835981</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002391799659909136</v>
+        <v>0.0007590672190060376</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4084688361303392</v>
+        <v>0.2396116856364685</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5103780871567807</v>
+        <v>1.54975002786982</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.224564832008838</v>
+        <v>2.451157309177461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.297566782645333</v>
+        <v>4.051204504066447</v>
       </c>
       <c r="C11">
-        <v>0.3663014075121964</v>
+        <v>1.191470641635703</v>
       </c>
       <c r="D11">
-        <v>0.1157390900858104</v>
+        <v>0.3424672911370124</v>
       </c>
       <c r="E11">
-        <v>0.1319362027396167</v>
+        <v>0.3174160039845688</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002389539089396481</v>
+        <v>0.0007551009530303874</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4056759397182859</v>
+        <v>0.2474162172633854</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.542673921599885</v>
+        <v>1.668763811067308</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.241797582237496</v>
+        <v>2.609595561695443</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.32874637193521</v>
+        <v>4.155832721907132</v>
       </c>
       <c r="C12">
-        <v>0.3753262981038574</v>
+        <v>1.221866591710182</v>
       </c>
       <c r="D12">
-        <v>0.1181698889502769</v>
+        <v>0.3518741227807709</v>
       </c>
       <c r="E12">
-        <v>0.1337462170739911</v>
+        <v>0.3266964876329226</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002388699052317359</v>
+        <v>0.0007536082285569238</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4046822819518141</v>
+        <v>0.2506603485697809</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5549162098779021</v>
+        <v>1.714169065126185</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.248646164732435</v>
+        <v>2.671334869964824</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.322032151640656</v>
+        <v>4.133280499122577</v>
       </c>
       <c r="C13">
-        <v>0.3733830746868989</v>
+        <v>1.215314082384282</v>
       </c>
       <c r="D13">
-        <v>0.1176461033605847</v>
+        <v>0.349844441492337</v>
       </c>
       <c r="E13">
-        <v>0.1333555610510047</v>
+        <v>0.3246891574916262</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002388879259232144</v>
+        <v>0.0007539293228389005</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4048934328649594</v>
+        <v>0.2499483454874039</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.552279053856779</v>
+        <v>1.704374359760635</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.247156800430787</v>
+        <v>2.657957488703914</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.30013233308415</v>
+        <v>4.059804029510133</v>
       </c>
       <c r="C14">
-        <v>0.3670440923673368</v>
+        <v>1.193968578918202</v>
       </c>
       <c r="D14">
-        <v>0.1159389519786487</v>
+        <v>0.3432395232009071</v>
       </c>
       <c r="E14">
-        <v>0.1320847370209464</v>
+        <v>0.3181756728500247</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002389469658962862</v>
+        <v>0.0007549779679391103</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4055929067650226</v>
+        <v>0.2476771555054995</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5436808497466501</v>
+        <v>1.672492257243178</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.242354533955563</v>
+        <v>2.614638818723051</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.286715556559386</v>
+        <v>4.014850943534441</v>
       </c>
       <c r="C15">
-        <v>0.3631599738315572</v>
+        <v>1.180911557649097</v>
       </c>
       <c r="D15">
-        <v>0.1148940608650122</v>
+        <v>0.3392046072559936</v>
       </c>
       <c r="E15">
-        <v>0.1313087656870238</v>
+        <v>0.3142107415809434</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002389833376094343</v>
+        <v>0.0007556214578127498</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4060296957799565</v>
+        <v>0.246324473211736</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5384158399314742</v>
+        <v>1.653009081285688</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.239455130517797</v>
+        <v>2.588337733317928</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.209791879939587</v>
+        <v>3.758006342911301</v>
       </c>
       <c r="C16">
-        <v>0.3408817637737229</v>
+        <v>1.106340127146666</v>
       </c>
       <c r="D16">
-        <v>0.1089182561827471</v>
+        <v>0.316238963124718</v>
       </c>
       <c r="E16">
-        <v>0.1268992041766595</v>
+        <v>0.2918496774334471</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002391949635708685</v>
+        <v>0.0007593277773047048</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.408660284297607</v>
+        <v>0.2391404420607657</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.508269229697774</v>
+        <v>1.542016505391459</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.223483689042098</v>
+        <v>2.441036011189425</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.162569109938147</v>
+        <v>3.601064288684483</v>
       </c>
       <c r="C17">
-        <v>0.3271972286641471</v>
+        <v>1.060799468188748</v>
       </c>
       <c r="D17">
-        <v>0.1052629969336323</v>
+        <v>0.3022812827157253</v>
       </c>
       <c r="E17">
-        <v>0.1242270079671073</v>
+        <v>0.2784333376043264</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002393276462245508</v>
+        <v>0.0007616191405832395</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4103875139541167</v>
+        <v>0.2352164331493114</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4897975116971622</v>
+        <v>1.474470820667079</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.214258337662159</v>
+        <v>2.353565040659845</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.135396215309584</v>
+        <v>3.511002697816252</v>
       </c>
       <c r="C18">
-        <v>0.3193198591796431</v>
+        <v>1.034674201344615</v>
       </c>
       <c r="D18">
-        <v>0.1031645046907244</v>
+        <v>0.2942979133790686</v>
       </c>
       <c r="E18">
-        <v>0.1227020203565417</v>
+        <v>0.2708197475426815</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002394050142838516</v>
+        <v>0.0007629439188238751</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4114225256193258</v>
+        <v>0.2331280782883347</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4791812118659351</v>
+        <v>1.435804420781452</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.209161829365172</v>
+        <v>2.304257508659305</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.126193981896336</v>
+        <v>3.480542995180997</v>
       </c>
       <c r="C19">
-        <v>0.3166516271508613</v>
+        <v>1.0258397292165</v>
       </c>
       <c r="D19">
-        <v>0.1024546622489737</v>
+        <v>0.2916022485999576</v>
       </c>
       <c r="E19">
-        <v>0.1221877343088522</v>
+        <v>0.2682589331384904</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002394313907917706</v>
+        <v>0.0007633936746783578</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4117800868652282</v>
+        <v>0.2324491422688659</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4755881107647753</v>
+        <v>1.422742792316015</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.207472177922398</v>
+        <v>2.287729676970628</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.167597263990501</v>
+        <v>3.617749099664991</v>
       </c>
       <c r="C20">
-        <v>0.3286546334348088</v>
+        <v>1.065640096326121</v>
       </c>
       <c r="D20">
-        <v>0.1056516998212231</v>
+        <v>0.3037623981156088</v>
       </c>
       <c r="E20">
-        <v>0.1245102244909901</v>
+        <v>0.279850688524057</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002393134130543738</v>
+        <v>0.0007613745203284382</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.410199343541283</v>
+        <v>0.23561650176811</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4917630140234621</v>
+        <v>1.481641768989903</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.215218674821614</v>
+        <v>2.362771302777901</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.306565364775111</v>
+        <v>4.081374592911459</v>
       </c>
       <c r="C21">
-        <v>0.3689062782827932</v>
+        <v>1.200234533507682</v>
       </c>
       <c r="D21">
-        <v>0.1164402193235929</v>
+        <v>0.3451772789542247</v>
       </c>
       <c r="E21">
-        <v>0.1324574986686855</v>
+        <v>0.3200836327242627</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002389295811038158</v>
+        <v>0.0007546697149243831</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4053857152939599</v>
+        <v>0.2483361839199176</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5462060090659833</v>
+        <v>1.681847216034527</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.243756293299498</v>
+        <v>2.627313669690608</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.397277908690342</v>
+        <v>4.386709377799775</v>
       </c>
       <c r="C22">
-        <v>0.3951546671715391</v>
+        <v>1.288972459435115</v>
       </c>
       <c r="D22">
-        <v>0.1235263809191451</v>
+        <v>0.3727177278718017</v>
       </c>
       <c r="E22">
-        <v>0.1377606371543791</v>
+        <v>0.347465642070091</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00238688042318417</v>
+        <v>0.0007503408399417988</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4026126876815894</v>
+        <v>0.2583473381926567</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5818608966495162</v>
+        <v>1.81468684176086</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.264290570200387</v>
+        <v>2.810464579390896</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.348873459713275</v>
+        <v>4.223508577196071</v>
       </c>
       <c r="C23">
-        <v>0.3811508227670402</v>
+        <v>1.241532281833997</v>
       </c>
       <c r="D23">
-        <v>0.1197411207872392</v>
+        <v>0.3579716985555024</v>
       </c>
       <c r="E23">
-        <v>0.134920151079271</v>
+        <v>0.3327430979545838</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002388161062054737</v>
+        <v>0.0007526467859639463</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4040584379239576</v>
+        <v>0.252838730761809</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5628244740981359</v>
+        <v>1.743587126717941</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.253157933521379</v>
+        <v>2.711707037883173</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.165324109893731</v>
+        <v>3.610205383211962</v>
       </c>
       <c r="C24">
-        <v>0.3279957717134891</v>
+        <v>1.063451473583598</v>
       </c>
       <c r="D24">
-        <v>0.1054759580170952</v>
+        <v>0.3030926586723268</v>
       </c>
       <c r="E24">
-        <v>0.1243821471510813</v>
+        <v>0.2792095956102827</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002393198444703954</v>
+        <v>0.0007614850898657549</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4102842845713788</v>
+        <v>0.2354351107808412</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4908744000441487</v>
+        <v>1.478399268383711</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.214783860923063</v>
+        <v>2.358606111171127</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9668967683517735</v>
+        <v>2.956358537035953</v>
       </c>
       <c r="C25">
-        <v>0.2704160010221131</v>
+        <v>0.8739064917392056</v>
       </c>
       <c r="D25">
-        <v>0.09023811779591995</v>
+        <v>0.2455707161426091</v>
       </c>
       <c r="E25">
-        <v>0.1134721220575869</v>
+        <v>0.2253312590987804</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00239903481776811</v>
+        <v>0.0007712841455996019</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.418586860113848</v>
+        <v>0.2230174499809223</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4135752828674555</v>
+        <v>1.199225349254718</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.181397396028132</v>
+        <v>2.01547547003014</v>
       </c>
     </row>
   </sheetData>
